--- a/output/FUNDO_03737200000110.xlsx
+++ b/output/FUNDO_03737200000110.xlsx
@@ -2330,10 +2330,10 @@
         <v>44165</v>
       </c>
       <c r="B177">
-        <v>2.3603278</v>
+        <v>2.3617015</v>
       </c>
       <c r="C177">
-        <v>0.01574443751293364</v>
+        <v>0.01615967323303558</v>
       </c>
     </row>
   </sheetData>

--- a/output/FUNDO_03737200000110.xlsx
+++ b/output/FUNDO_03737200000110.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO CAIXA ESTRATÉGICO MULTIMERCADO LONGO PRAZO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1954 +383,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38837</v>
       </c>
       <c r="B2">
-        <v>0.008856600000000103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38868</v>
       </c>
       <c r="B3">
-        <v>0.01803289999999991</v>
-      </c>
-      <c r="C3">
         <v>0.009095742645684135</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38898</v>
       </c>
       <c r="B4">
-        <v>0.03588790000000008</v>
-      </c>
-      <c r="C4">
         <v>0.01753872590954586</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38929</v>
       </c>
       <c r="B5">
-        <v>0.05041549999999995</v>
-      </c>
-      <c r="C5">
         <v>0.01402429741673772</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38960</v>
       </c>
       <c r="B6">
-        <v>0.06248539999999991</v>
-      </c>
-      <c r="C6">
         <v>0.01149059586420798</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38990</v>
       </c>
       <c r="B7">
-        <v>0.07367539999999995</v>
-      </c>
-      <c r="C7">
         <v>0.01053190942670845</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39021</v>
       </c>
       <c r="B8">
-        <v>0.08753839999999991</v>
-      </c>
-      <c r="C8">
         <v>0.01291172359914361</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39051</v>
       </c>
       <c r="B9">
-        <v>0.1000022</v>
-      </c>
-      <c r="C9">
         <v>0.0114605608408862</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39082</v>
       </c>
       <c r="B10">
-        <v>0.1133652000000001</v>
-      </c>
-      <c r="C10">
         <v>0.01214815752186671</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39113</v>
       </c>
       <c r="B11">
-        <v>0.1239541</v>
-      </c>
-      <c r="C11">
         <v>0.009510715801068548</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39141</v>
       </c>
       <c r="B12">
-        <v>0.1318478000000001</v>
-      </c>
-      <c r="C12">
         <v>0.007023151568200214</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39172</v>
       </c>
       <c r="B13">
-        <v>0.1456803</v>
-      </c>
-      <c r="C13">
         <v>0.01222116613205415</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39202</v>
       </c>
       <c r="B14">
-        <v>0.1602326999999999</v>
-      </c>
-      <c r="C14">
         <v>0.01270197279293361</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39233</v>
       </c>
       <c r="B15">
-        <v>0.1758033999999999</v>
-      </c>
-      <c r="C15">
         <v>0.0134203250778917</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39263</v>
       </c>
       <c r="B16">
-        <v>0.1857317000000001</v>
-      </c>
-      <c r="C16">
         <v>0.008443843588137323</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39294</v>
       </c>
       <c r="B17">
-        <v>0.1954811999999999</v>
-      </c>
-      <c r="C17">
         <v>0.008222349119956673</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39325</v>
       </c>
       <c r="B18">
-        <v>0.1958025000000001</v>
-      </c>
-      <c r="C18">
         <v>0.0002687620683623493</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39355</v>
       </c>
       <c r="B19">
-        <v>0.2078401000000001</v>
-      </c>
-      <c r="C19">
         <v>0.01006654526980832</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>39386</v>
       </c>
       <c r="B20">
-        <v>0.2180572999999999</v>
-      </c>
-      <c r="C20">
         <v>0.008459066725802433</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39416</v>
       </c>
       <c r="B21">
-        <v>0.2239213</v>
-      </c>
-      <c r="C21">
         <v>0.004814223435958276</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>39447</v>
       </c>
       <c r="B22">
-        <v>0.2318777999999999</v>
-      </c>
-      <c r="C22">
         <v>0.006500826482879196</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39478</v>
       </c>
       <c r="B23">
-        <v>0.2399087</v>
-      </c>
-      <c r="C23">
         <v>0.006519234294180887</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39507</v>
       </c>
       <c r="B24">
-        <v>0.2529622</v>
-      </c>
-      <c r="C24">
         <v>0.01052779128011605</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39538</v>
       </c>
       <c r="B25">
-        <v>0.2553201</v>
-      </c>
-      <c r="C25">
         <v>0.00188186044239802</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39568</v>
       </c>
       <c r="B26">
-        <v>0.2673882000000001</v>
-      </c>
-      <c r="C26">
         <v>0.009613563902943989</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39599</v>
       </c>
       <c r="B27">
-        <v>0.2783929000000001</v>
-      </c>
-      <c r="C27">
         <v>0.008682974955897427</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39629</v>
       </c>
       <c r="B28">
-        <v>0.2885055000000001</v>
-      </c>
-      <c r="C28">
         <v>0.00791040062878956</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39660</v>
       </c>
       <c r="B29">
-        <v>0.3007143999999999</v>
-      </c>
-      <c r="C29">
         <v>0.009475240889541992</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39691</v>
       </c>
       <c r="B30">
-        <v>0.3103572000000001</v>
-      </c>
-      <c r="C30">
         <v>0.00741346447767488</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39721</v>
       </c>
       <c r="B31">
-        <v>0.3184834000000001</v>
-      </c>
-      <c r="C31">
         <v>0.00620151512885192</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39752</v>
       </c>
       <c r="B32">
-        <v>0.3274319999999999</v>
-      </c>
-      <c r="C32">
         <v>0.006787040322236759</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39782</v>
       </c>
       <c r="B33">
-        <v>0.3403182</v>
-      </c>
-      <c r="C33">
         <v>0.009707615908008949</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39813</v>
       </c>
       <c r="B34">
-        <v>0.3574387000000001</v>
-      </c>
-      <c r="C34">
         <v>0.01277345931734719</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39844</v>
       </c>
       <c r="B35">
-        <v>0.3706076</v>
-      </c>
-      <c r="C35">
         <v>0.009701285221940248</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39872</v>
       </c>
       <c r="B36">
-        <v>0.3814740999999999</v>
-      </c>
-      <c r="C36">
         <v>0.007928235623383406</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39903</v>
       </c>
       <c r="B37">
-        <v>0.3945727299999999</v>
-      </c>
-      <c r="C37">
         <v>0.009481632699447573</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39933</v>
       </c>
       <c r="B38">
-        <v>0.4034232600000001</v>
-      </c>
-      <c r="C38">
         <v>0.006346409770969785</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39964</v>
       </c>
       <c r="B39">
-        <v>0.41458342</v>
-      </c>
-      <c r="C39">
         <v>0.007952098499493188</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39994</v>
       </c>
       <c r="B40">
-        <v>0.4247266000000001</v>
-      </c>
-      <c r="C40">
         <v>0.00717043608499246</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40025</v>
       </c>
       <c r="B41">
-        <v>0.4369451799999999</v>
-      </c>
-      <c r="C41">
         <v>0.008576087510403729</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40056</v>
       </c>
       <c r="B42">
-        <v>0.4458631799999999</v>
-      </c>
-      <c r="C42">
         <v>0.006206221450981264</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40086</v>
       </c>
       <c r="B43">
-        <v>0.4555662700000001</v>
-      </c>
-      <c r="C43">
         <v>0.006710932358067412</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40117</v>
       </c>
       <c r="B44">
-        <v>0.4656451800000001</v>
-      </c>
-      <c r="C44">
         <v>0.006924391013814812</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40147</v>
       </c>
       <c r="B45">
-        <v>0.47709998</v>
-      </c>
-      <c r="C45">
         <v>0.007815534179971051</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40178</v>
       </c>
       <c r="B46">
-        <v>0.4890096100000001</v>
-      </c>
-      <c r="C46">
         <v>0.008062846226563503</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40209</v>
       </c>
       <c r="B47">
-        <v>0.49824107</v>
-      </c>
-      <c r="C47">
         <v>0.006199731645788242</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40237</v>
       </c>
       <c r="B48">
-        <v>0.5067211</v>
-      </c>
-      <c r="C48">
         <v>0.005659990351219113</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40268</v>
       </c>
       <c r="B49">
-        <v>0.515836</v>
-      </c>
-      <c r="C49">
         <v>0.006049493831340014</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>40298</v>
       </c>
       <c r="B50">
-        <v>0.5241880000000001</v>
-      </c>
-      <c r="C50">
         <v>0.005509830878802191</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>40329</v>
       </c>
       <c r="B51">
-        <v>0.534224</v>
-      </c>
-      <c r="C51">
         <v>0.006584489577401209</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>40359</v>
       </c>
       <c r="B52">
-        <v>0.543601</v>
-      </c>
-      <c r="C52">
         <v>0.006111884574873105</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>40390</v>
       </c>
       <c r="B53">
-        <v>0.5595600000000001</v>
-      </c>
-      <c r="C53">
         <v>0.01033881164886519</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40421</v>
       </c>
       <c r="B54">
-        <v>0.5716079999999999</v>
-      </c>
-      <c r="C54">
         <v>0.007725255841391165</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>40451</v>
       </c>
       <c r="B55">
-        <v>0.5820590000000001</v>
-      </c>
-      <c r="C55">
         <v>0.006649877068582111</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40482</v>
       </c>
       <c r="B56">
-        <v>0.593707</v>
-      </c>
-      <c r="C56">
         <v>0.007362557275044646</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40512</v>
       </c>
       <c r="B57">
-        <v>0.5993170000000001</v>
-      </c>
-      <c r="C57">
         <v>0.003520094973542998</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40543</v>
       </c>
       <c r="B58">
-        <v>0.614425</v>
-      </c>
-      <c r="C58">
         <v>0.009446532488555981</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40574</v>
       </c>
       <c r="B59">
-        <v>0.621267</v>
-      </c>
-      <c r="C59">
         <v>0.004238041407931714</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40602</v>
       </c>
       <c r="B60">
-        <v>0.638355</v>
-      </c>
-      <c r="C60">
         <v>0.01053990490153689</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40633</v>
       </c>
       <c r="B61">
-        <v>0.649715</v>
-      </c>
-      <c r="C61">
         <v>0.006933784192070691</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40663</v>
       </c>
       <c r="B62">
-        <v>0.669055</v>
-      </c>
-      <c r="C62">
         <v>0.01172323704397416</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40694</v>
       </c>
       <c r="B63">
-        <v>0.6841410000000001</v>
-      </c>
-      <c r="C63">
         <v>0.00903864761796358</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40724</v>
       </c>
       <c r="B64">
-        <v>0.6906950000000001</v>
-      </c>
-      <c r="C64">
         <v>0.003891598150036035</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40755</v>
       </c>
       <c r="B65">
-        <v>0.6965319999999999</v>
-      </c>
-      <c r="C65">
         <v>0.00345242636903742</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40786</v>
       </c>
       <c r="B66">
-        <v>0.7238560000000001</v>
-      </c>
-      <c r="C66">
         <v>0.01610579700235548</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40816</v>
       </c>
       <c r="B67">
-        <v>0.739608</v>
-      </c>
-      <c r="C67">
         <v>0.009137654189212974</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40847</v>
       </c>
       <c r="B68">
-        <v>0.7589410000000001</v>
-      </c>
-      <c r="C68">
         <v>0.01111342325397446</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40877</v>
       </c>
       <c r="B69">
-        <v>0.775417</v>
-      </c>
-      <c r="C69">
         <v>0.009366999802722153</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40908</v>
       </c>
       <c r="B70">
-        <v>0.786759</v>
-      </c>
-      <c r="C70">
         <v>0.006388358340603917</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40939</v>
       </c>
       <c r="B71">
-        <v>0.8094669999999999</v>
-      </c>
-      <c r="C71">
         <v>0.0127090447004885</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40968</v>
       </c>
       <c r="B72">
-        <v>0.8263259999999999</v>
-      </c>
-      <c r="C72">
         <v>0.009317108297636878</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40999</v>
       </c>
       <c r="B73">
-        <v>0.840843</v>
-      </c>
-      <c r="C73">
         <v>0.007948745185689887</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41029</v>
       </c>
       <c r="B74">
-        <v>0.8575600000000001</v>
-      </c>
-      <c r="C74">
         <v>0.009081165531226842</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41060</v>
       </c>
       <c r="B75">
-        <v>0.859383</v>
-      </c>
-      <c r="C75">
         <v>0.0009813949482115891</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41090</v>
       </c>
       <c r="B76">
-        <v>0.8707830000000001</v>
-      </c>
-      <c r="C76">
         <v>0.006131066057934342</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41121</v>
       </c>
       <c r="B77">
-        <v>0.8825719999999999</v>
-      </c>
-      <c r="C77">
         <v>0.006301639473952791</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41152</v>
       </c>
       <c r="B78">
-        <v>0.8957390000000001</v>
-      </c>
-      <c r="C78">
         <v>0.006994154805234576</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41182</v>
       </c>
       <c r="B79">
-        <v>0.9096249999999999</v>
-      </c>
-      <c r="C79">
         <v>0.007324847988040561</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41213</v>
       </c>
       <c r="B80">
-        <v>0.920498</v>
-      </c>
-      <c r="C80">
         <v>0.005693788047391513</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41243</v>
       </c>
       <c r="B81">
-        <v>0.933093</v>
-      </c>
-      <c r="C81">
         <v>0.006558194801556727</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>41274</v>
       </c>
       <c r="B82">
-        <v>0.9519960000000001</v>
-      </c>
-      <c r="C82">
         <v>0.009778629377893422</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>41305</v>
       </c>
       <c r="B83">
-        <v>0.9552849999999999</v>
-      </c>
-      <c r="C83">
         <v>0.001684941977340149</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>41333</v>
       </c>
       <c r="B84">
-        <v>0.9422600000000001</v>
-      </c>
-      <c r="C84">
         <v>-0.006661432988029792</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>41364</v>
       </c>
       <c r="B85">
-        <v>0.9521440000000001</v>
-      </c>
-      <c r="C85">
         <v>0.005088917034794527</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>41394</v>
       </c>
       <c r="B86">
-        <v>0.9578070000000001</v>
-      </c>
-      <c r="C86">
         <v>0.002900913047398035</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>41425</v>
       </c>
       <c r="B87">
-        <v>0.9482630000000001</v>
-      </c>
-      <c r="C87">
         <v>-0.004874842106499799</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>41455</v>
       </c>
       <c r="B88">
-        <v>0.9363319999999999</v>
-      </c>
-      <c r="C88">
         <v>-0.006123916534882645</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41486</v>
       </c>
       <c r="B89">
-        <v>0.9583889999999999</v>
-      </c>
-      <c r="C89">
         <v>0.01139112507565843</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41517</v>
       </c>
       <c r="B90">
-        <v>0.9688540000000001</v>
-      </c>
-      <c r="C90">
         <v>0.005343677890347731</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41547</v>
       </c>
       <c r="B91">
-        <v>0.9771202999999999</v>
-      </c>
-      <c r="C91">
         <v>0.004198533766343271</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41578</v>
       </c>
       <c r="B92">
-        <v>0.9880494</v>
-      </c>
-      <c r="C92">
         <v>0.005527787054738109</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41608</v>
       </c>
       <c r="B93">
-        <v>0.9927136999999999</v>
-      </c>
-      <c r="C93">
         <v>0.002346169064008086</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41639</v>
       </c>
       <c r="B94">
-        <v>1.0070193</v>
-      </c>
-      <c r="C94">
         <v>0.007178954006288096</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41670</v>
       </c>
       <c r="B95">
-        <v>1.0209898</v>
-      </c>
-      <c r="C95">
         <v>0.006960819958233611</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41698</v>
       </c>
       <c r="B96">
-        <v>1.0446988</v>
-      </c>
-      <c r="C96">
         <v>0.01173138033650623</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41729</v>
       </c>
       <c r="B97">
-        <v>1.052152</v>
-      </c>
-      <c r="C97">
         <v>0.003645133454374783</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41759</v>
       </c>
       <c r="B98">
-        <v>1.0650468</v>
-      </c>
-      <c r="C98">
         <v>0.006283550146382932</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41790</v>
       </c>
       <c r="B99">
-        <v>1.0879167</v>
-      </c>
-      <c r="C99">
         <v>0.01107476111437267</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41820</v>
       </c>
       <c r="B100">
-        <v>1.1080888</v>
-      </c>
-      <c r="C100">
         <v>0.009661352869106299</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41851</v>
       </c>
       <c r="B101">
-        <v>1.1160624</v>
-      </c>
-      <c r="C101">
         <v>0.003782383360700914</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41882</v>
       </c>
       <c r="B102">
-        <v>1.1208066</v>
-      </c>
-      <c r="C102">
         <v>0.002241994375969059</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41912</v>
       </c>
       <c r="B103">
-        <v>1.1333895</v>
-      </c>
-      <c r="C103">
         <v>0.00593307282238742</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41943</v>
       </c>
       <c r="B104">
-        <v>1.1396905</v>
-      </c>
-      <c r="C104">
         <v>0.002953515989461808</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41973</v>
       </c>
       <c r="B105">
-        <v>1.1631478</v>
-      </c>
-      <c r="C105">
         <v>0.01096294066828829</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42004</v>
       </c>
       <c r="B106">
-        <v>1.1613733</v>
-      </c>
-      <c r="C106">
         <v>-0.000820332295370596</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42035</v>
       </c>
       <c r="B107">
-        <v>1.1675944</v>
-      </c>
-      <c r="C107">
         <v>0.00287830889740337</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42063</v>
       </c>
       <c r="B108">
-        <v>1.2027891</v>
-      </c>
-      <c r="C108">
         <v>0.01623675536345726</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42094</v>
       </c>
       <c r="B109">
-        <v>1.1998706</v>
-      </c>
-      <c r="C109">
         <v>-0.001324911222776559</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42124</v>
       </c>
       <c r="B110">
-        <v>1.2186148</v>
-      </c>
-      <c r="C110">
         <v>0.008520592074824807</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42155</v>
       </c>
       <c r="B111">
-        <v>1.2273798</v>
-      </c>
-      <c r="C111">
         <v>0.003950663269712162</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42185</v>
       </c>
       <c r="B112">
-        <v>1.239757</v>
-      </c>
-      <c r="C112">
         <v>0.005556843067356487</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42216</v>
       </c>
       <c r="B113">
-        <v>1.2637117</v>
-      </c>
-      <c r="C113">
         <v>0.01069522274068113</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42247</v>
       </c>
       <c r="B114">
-        <v>1.2846153</v>
-      </c>
-      <c r="C114">
         <v>0.009234214763302218</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>42277</v>
       </c>
       <c r="B115">
-        <v>1.2993713</v>
-      </c>
-      <c r="C115">
         <v>0.00645885545807201</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>42308</v>
       </c>
       <c r="B116">
-        <v>1.3392884</v>
-      </c>
-      <c r="C116">
         <v>0.01736000618951805</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>42338</v>
       </c>
       <c r="B117">
-        <v>1.3569719</v>
-      </c>
-      <c r="C117">
         <v>0.007559350099799467</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>42369</v>
       </c>
       <c r="B118">
-        <v>1.3680454</v>
-      </c>
-      <c r="C118">
         <v>0.0046981892317004</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42400</v>
       </c>
       <c r="B119">
-        <v>1.4199387</v>
-      </c>
-      <c r="C119">
         <v>0.02191398019649449</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>42429</v>
       </c>
       <c r="B120">
-        <v>1.4344136</v>
-      </c>
-      <c r="C120">
         <v>0.005981515151602945</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42460</v>
       </c>
       <c r="B121">
-        <v>1.4813585</v>
-      </c>
-      <c r="C121">
         <v>0.01928386367871093</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42490</v>
       </c>
       <c r="B122">
-        <v>1.5238157</v>
-      </c>
-      <c r="C122">
         <v>0.01711046590003029</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42521</v>
       </c>
       <c r="B123">
-        <v>1.5356059</v>
-      </c>
-      <c r="C123">
         <v>0.004671577247102432</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42551</v>
       </c>
       <c r="B124">
-        <v>1.5548256</v>
-      </c>
-      <c r="C124">
         <v>0.007579923993708881</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42582</v>
       </c>
       <c r="B125">
-        <v>1.5874893</v>
-      </c>
-      <c r="C125">
         <v>0.01278509969525898</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42613</v>
       </c>
       <c r="B126">
-        <v>1.6100465</v>
-      </c>
-      <c r="C126">
         <v>0.00871779450450294</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42643</v>
       </c>
       <c r="B127">
-        <v>1.6391015</v>
-      </c>
-      <c r="C127">
         <v>0.01113198557956729</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42674</v>
       </c>
       <c r="B128">
-        <v>1.6706915</v>
-      </c>
-      <c r="C128">
         <v>0.01196998296579355</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42704</v>
       </c>
       <c r="B129">
-        <v>1.6898377</v>
-      </c>
-      <c r="C129">
         <v>0.007169004731546025</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42735</v>
       </c>
       <c r="B130">
-        <v>1.7184036</v>
-      </c>
-      <c r="C130">
         <v>0.01061993442950104</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42766</v>
       </c>
       <c r="B131">
-        <v>1.7472539</v>
-      </c>
-      <c r="C131">
         <v>0.01061295681038699</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42794</v>
       </c>
       <c r="B132">
-        <v>1.7770414</v>
-      </c>
-      <c r="C132">
         <v>0.01084264545042601</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42825</v>
       </c>
       <c r="B133">
-        <v>1.8028093</v>
-      </c>
-      <c r="C133">
         <v>0.009278903800281846</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42855</v>
       </c>
       <c r="B134">
-        <v>1.8214476</v>
-      </c>
-      <c r="C134">
         <v>0.006649863763474873</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42886</v>
       </c>
       <c r="B135">
-        <v>1.8043078</v>
-      </c>
-      <c r="C135">
         <v>-0.006074824852320471</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42916</v>
       </c>
       <c r="B136">
-        <v>1.8164557</v>
-      </c>
-      <c r="C136">
         <v>0.004331871130551335</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42947</v>
       </c>
       <c r="B137">
-        <v>1.8833671</v>
-      </c>
-      <c r="C137">
         <v>0.02375730603538329</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42978</v>
       </c>
       <c r="B138">
-        <v>1.9207813</v>
-      </c>
-      <c r="C138">
         <v>0.01297587116118493</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43008</v>
       </c>
       <c r="B139">
-        <v>1.9596335</v>
-      </c>
-      <c r="C139">
         <v>0.01330198875211908</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43039</v>
       </c>
       <c r="B140">
-        <v>1.9824765</v>
-      </c>
-      <c r="C140">
         <v>0.00771818537666924</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43069</v>
       </c>
       <c r="B141">
-        <v>1.9935102</v>
-      </c>
-      <c r="C141">
         <v>0.003699509451289718</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43100</v>
       </c>
       <c r="B142">
-        <v>2.0159505</v>
-      </c>
-      <c r="C142">
         <v>0.007496316531675928</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43131</v>
       </c>
       <c r="B143">
-        <v>2.0342106</v>
-      </c>
-      <c r="C143">
         <v>0.006054509183754941</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43159</v>
       </c>
       <c r="B144">
-        <v>2.0423119</v>
-      </c>
-      <c r="C144">
         <v>0.002669986058317697</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43190</v>
       </c>
       <c r="B145">
-        <v>2.0496012</v>
-      </c>
-      <c r="C145">
         <v>0.002395973930220618</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43220</v>
       </c>
       <c r="B146">
-        <v>2.0636319</v>
-      </c>
-      <c r="C146">
         <v>0.00460083108571685</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43251</v>
       </c>
       <c r="B147">
-        <v>2.0291945</v>
-      </c>
-      <c r="C147">
         <v>-0.01124071073943311</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>43281</v>
       </c>
       <c r="B148">
-        <v>2.0201374</v>
-      </c>
-      <c r="C148">
         <v>-0.002989936763717282</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>43312</v>
       </c>
       <c r="B149">
-        <v>2.0608658</v>
-      </c>
-      <c r="C149">
         <v>0.01348561161488893</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>43343</v>
       </c>
       <c r="B150">
-        <v>2.0383808</v>
-      </c>
-      <c r="C150">
         <v>-0.007345960740911983</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>43373</v>
       </c>
       <c r="B151">
-        <v>2.0571643</v>
-      </c>
-      <c r="C151">
         <v>0.006182075663458741</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43404</v>
       </c>
       <c r="B152">
-        <v>2.0879928</v>
-      </c>
-      <c r="C152">
         <v>0.01008401805555548</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>43434</v>
       </c>
       <c r="B153">
-        <v>2.1052293</v>
-      </c>
-      <c r="C153">
         <v>0.005581781149230691</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43465</v>
       </c>
       <c r="B154">
-        <v>2.0908725</v>
-      </c>
-      <c r="C154">
         <v>-0.00462342668220983</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43496</v>
       </c>
       <c r="B155">
-        <v>2.1494794</v>
-      </c>
-      <c r="C155">
         <v>0.0189612803504513</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43524</v>
       </c>
       <c r="B156">
-        <v>2.1523346</v>
-      </c>
-      <c r="C156">
         <v>0.0009065625258575238</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43555</v>
       </c>
       <c r="B157">
-        <v>2.1632904</v>
-      </c>
-      <c r="C157">
         <v>0.003475455936688965</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43585</v>
       </c>
       <c r="B158">
-        <v>2.1848478</v>
-      </c>
-      <c r="C158">
         <v>0.00681486593832803</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43616</v>
       </c>
       <c r="B159">
-        <v>2.2073739</v>
-      </c>
-      <c r="C159">
         <v>0.007072896858681954</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43646</v>
       </c>
       <c r="B160">
-        <v>2.2437222</v>
-      </c>
-      <c r="C160">
         <v>0.01133272924619111</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43677</v>
       </c>
       <c r="B161">
-        <v>2.2527393</v>
-      </c>
-      <c r="C161">
         <v>0.00277986197461666</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43708</v>
       </c>
       <c r="B162">
-        <v>2.2761036</v>
-      </c>
-      <c r="C162">
         <v>0.007182961142935707</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43738</v>
       </c>
       <c r="B163">
-        <v>2.3137487</v>
-      </c>
-      <c r="C163">
         <v>0.01149081488143411</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43769</v>
       </c>
       <c r="B164">
-        <v>2.3413934</v>
-      </c>
-      <c r="C164">
         <v>0.008342425000423148</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43799</v>
       </c>
       <c r="B165">
-        <v>2.3513489</v>
-      </c>
-      <c r="C165">
         <v>0.002979445640851619</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43830</v>
       </c>
       <c r="B166">
-        <v>2.4042896</v>
-      </c>
-      <c r="C166">
         <v>0.01579683332881276</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43861</v>
       </c>
       <c r="B167">
-        <v>2.4050388</v>
-      </c>
-      <c r="C167">
         <v>0.0002200752838419362</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43890</v>
       </c>
       <c r="B168">
-        <v>2.3407138</v>
-      </c>
-      <c r="C168">
         <v>-0.01889112100572821</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43921</v>
       </c>
       <c r="B169">
-        <v>2.1319556</v>
-      </c>
-      <c r="C169">
         <v>-0.06248910038327737</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43951</v>
       </c>
       <c r="B170">
-        <v>2.2211871</v>
-      </c>
-      <c r="C170">
         <v>0.02849066570420078</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43982</v>
       </c>
       <c r="B171">
-        <v>2.269359</v>
-      </c>
-      <c r="C171">
         <v>0.01495470412134714</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>44012</v>
       </c>
       <c r="B172">
-        <v>2.3197713</v>
-      </c>
-      <c r="C172">
         <v>0.01541962812893916</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>44043</v>
       </c>
       <c r="B173">
-        <v>2.3705409</v>
-      </c>
-      <c r="C173">
         <v>0.01529310166637066</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>44074</v>
       </c>
       <c r="B174">
-        <v>2.3697271</v>
-      </c>
-      <c r="C174">
         <v>-0.0002414449265398799</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>44104</v>
       </c>
       <c r="B175">
-        <v>2.3232015</v>
-      </c>
-      <c r="C175">
         <v>-0.01380693409860989</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>44135</v>
       </c>
       <c r="B176">
-        <v>2.3082414</v>
-      </c>
-      <c r="C176">
         <v>-0.004501713182303302</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>44165</v>
       </c>
       <c r="B177">
-        <v>2.3617015</v>
-      </c>
-      <c r="C177">
-        <v>0.01615967323303558</v>
+        <v>0.012604733137068</v>
       </c>
     </row>
   </sheetData>
